--- a/timings and predictions.xlsx
+++ b/timings and predictions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\GitHub\ML-for-Chinese-Calligraphy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\GitHubPC\ML-for-Chinese-Calligraphy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC52B1-2018-4F45-BDCB-7C6FD02245A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Number of Characters</t>
   </si>
@@ -37,9 +36,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>5min</t>
   </si>
   <si>
     <t>1h</t>
@@ -99,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +189,7 @@
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
-    <cellStyle name="Style 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Style 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,31 +500,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -537,21 +533,21 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -560,47 +556,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3866</v>
       </c>
@@ -608,33 +604,33 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -648,7 +644,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -662,7 +658,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -676,7 +672,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -690,7 +686,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -701,7 +697,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>6</v>
       </c>
@@ -712,7 +708,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>7</v>
       </c>
